--- a/Performance Data Collection.xlsx
+++ b/Performance Data Collection.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Materials\UPenn\CIS 5650\Project1-CUDA-Flocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803697BE-80DB-498D-AA9B-DABC95BA7337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{70251DC6-8F85-4472-923F-C5D587BD3E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>BlockSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,19 +52,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mode (All without visualize)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Uniform Grid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data for first 5 seconds for each case, all without visualization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Coherent Grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contain Visualization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data for first 5 seconds for each case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In MinSizeRel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test with visualization has an upper bound of 165 as limited by my screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as the Release mode will "run into problem"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some running in MinSizeRel mode,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mostly run in normal Release mode;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thus only frame per second recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From here below running directly but not using Nsight Systems to keep program running properly, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No significant change, but easier to crash my computer, but 1024 not crashed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,271 +447,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="25.9140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>128</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2">
+        <v>3354177</v>
+      </c>
+      <c r="G2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>2750</v>
+      </c>
+      <c r="F3">
+        <v>3659162</v>
+      </c>
+      <c r="G3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>950</v>
+      </c>
+      <c r="F4">
+        <v>2413606</v>
+      </c>
+      <c r="G4">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>1040728</v>
+      </c>
+      <c r="G5">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>500000</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
+        <v>965941</v>
+      </c>
+      <c r="G6">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>1700</v>
+      </c>
+      <c r="F7">
+        <v>3618118</v>
+      </c>
+      <c r="G7">
+        <v>879</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8">
+        <v>1700</v>
+      </c>
+      <c r="F8">
+        <v>3966306</v>
+      </c>
+      <c r="G8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+      <c r="D9">
+        <v>128</v>
+      </c>
+      <c r="E9">
+        <v>1650</v>
+      </c>
+      <c r="F9">
+        <v>3863361</v>
+      </c>
+      <c r="G9">
+        <v>705</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>50000</v>
+      </c>
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="E10">
+        <v>800</v>
+      </c>
+      <c r="F10">
+        <v>3462107</v>
+      </c>
+      <c r="G10">
+        <v>845</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>500000</v>
+      </c>
+      <c r="D11">
+        <v>128</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+      <c r="F11">
+        <v>3726472</v>
+      </c>
+      <c r="G11">
+        <v>995</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>1750</v>
+      </c>
+      <c r="F12">
+        <v>3704073</v>
+      </c>
+      <c r="G12">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>1750</v>
+      </c>
+      <c r="F13">
+        <v>3559682</v>
+      </c>
+      <c r="G13">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14">
+        <v>128</v>
+      </c>
+      <c r="E14">
+        <v>1700</v>
+      </c>
+      <c r="F14">
+        <v>3655219</v>
+      </c>
+      <c r="G14">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>50000</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>1500</v>
+      </c>
+      <c r="F15">
+        <v>3410237</v>
+      </c>
+      <c r="G15">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>500000</v>
+      </c>
+      <c r="D16">
+        <v>128</v>
+      </c>
+      <c r="E16">
+        <v>260</v>
+      </c>
+      <c r="F16">
+        <v>3393897</v>
+      </c>
+      <c r="G16">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C17">
         <v>50</v>
       </c>
-      <c r="C2">
-        <v>128</v>
-      </c>
-      <c r="D2">
-        <v>2500</v>
-      </c>
-      <c r="E2">
-        <v>3354177</v>
-      </c>
-      <c r="F2">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D17">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>165</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C18">
         <v>500</v>
       </c>
-      <c r="C3">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>2750</v>
-      </c>
-      <c r="E3">
-        <v>3659162</v>
-      </c>
-      <c r="F3">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D18">
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <v>165</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C19">
         <v>5000</v>
       </c>
-      <c r="C4">
-        <v>128</v>
-      </c>
-      <c r="D4">
-        <v>950</v>
-      </c>
-      <c r="E4">
-        <v>2413606</v>
-      </c>
-      <c r="F4">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D19">
+        <v>128</v>
+      </c>
+      <c r="E19">
+        <v>165</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C20">
         <v>50000</v>
       </c>
-      <c r="C5">
-        <v>128</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>1040728</v>
-      </c>
-      <c r="F5">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D20">
+        <v>128</v>
+      </c>
+      <c r="E20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C21">
         <v>500000</v>
       </c>
-      <c r="C6">
-        <v>128</v>
-      </c>
-      <c r="D6">
+      <c r="D21">
+        <v>128</v>
+      </c>
+      <c r="E21">
         <v>0.4</v>
       </c>
-      <c r="E6">
-        <v>965941</v>
-      </c>
-      <c r="F6">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>50</v>
       </c>
-      <c r="C7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="D22">
+        <v>128</v>
+      </c>
+      <c r="E22">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>500</v>
       </c>
-      <c r="C8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="D23">
+        <v>128</v>
+      </c>
+      <c r="E23">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>5000</v>
       </c>
-      <c r="C9">
-        <v>128</v>
-      </c>
-      <c r="D9">
-        <v>1650</v>
-      </c>
-      <c r="E9">
-        <v>3863361</v>
-      </c>
-      <c r="F9">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="D24">
+        <v>128</v>
+      </c>
+      <c r="E24">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>50000</v>
       </c>
-      <c r="C10">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
+      <c r="D25">
+        <v>128</v>
+      </c>
+      <c r="E25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>500000</v>
       </c>
-      <c r="C11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
+      <c r="D26">
+        <v>128</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="C12">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
+      <c r="D27">
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
         <v>500</v>
       </c>
-      <c r="C13">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
+      <c r="D28">
+        <v>128</v>
+      </c>
+      <c r="E28">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
         <v>5000</v>
       </c>
-      <c r="C14">
-        <v>128</v>
-      </c>
-      <c r="D14">
-        <v>1600</v>
-      </c>
-      <c r="E14">
-        <v>3655219</v>
-      </c>
-      <c r="F14">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
+      <c r="D29">
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
         <v>50000</v>
       </c>
-      <c r="C15">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
+      <c r="D30">
+        <v>128</v>
+      </c>
+      <c r="E30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
         <v>500000</v>
       </c>
-      <c r="C16">
-        <v>128</v>
+      <c r="D31">
+        <v>128</v>
+      </c>
+      <c r="E31">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>500000</v>
+      </c>
+      <c r="D33">
+        <v>64</v>
+      </c>
+      <c r="E33">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>500000</v>
+      </c>
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="E34">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>500000</v>
+      </c>
+      <c r="D35">
+        <v>256</v>
+      </c>
+      <c r="E35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>500000</v>
+      </c>
+      <c r="D36">
+        <v>512</v>
+      </c>
+      <c r="E36">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>500000</v>
+      </c>
+      <c r="D37">
+        <v>1024</v>
+      </c>
+      <c r="E37">
+        <v>265</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
